--- a/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
+++ b/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
@@ -1,30 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2_Bildung\11_Semester\6 SS 19\Labor\IFF\Labor-IFF-Flugversuch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\Desktop\Nico\TU-Braunschweig\6. Semester\IFF\Labor-IFF-Flugversuch\Excel_Word_Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6140C-2567-4904-BD51-1A90504398C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>VTAS</t>
   </si>
@@ -90,18 +96,31 @@
   </si>
   <si>
     <t>0,0196</t>
+  </si>
+  <si>
+    <t>Rho</t>
+  </si>
+  <si>
+    <t>Gewicht gemittelt (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -116,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -124,16 +143,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -153,7 +206,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -167,7 +220,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -273,6 +325,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6C7E-49E4-8038-9F382D923B1C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1027,7 +1084,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Diagramm 3"/>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1307,28 +1370,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="20.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1363,7 +1429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>80</v>
       </c>
@@ -1389,16 +1455,16 @@
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>0.72</v>
+        <v>1.343</v>
       </c>
       <c r="P4">
-        <v>2.58E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="Q4">
-        <v>5.425E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>100</v>
       </c>
@@ -1415,7 +1481,7 @@
         <v>0.86209999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>120</v>
       </c>
@@ -1432,7 +1498,7 @@
         <v>0.59650000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>140</v>
       </c>
@@ -1448,24 +1514,30 @@
       <c r="H7">
         <v>0.43569999999999998</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1.1315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
@@ -1477,24 +1549,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <v>4143.2</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2">
-        <v>58.652500000000003</v>
+        <f>SQRT(2*N33*9.81/(K8*29*O4))</f>
+        <v>42.943082298222272</v>
       </c>
       <c r="F13" s="2">
-        <v>2912.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <f>2*N33*9.81*P4/O4</f>
+        <v>2480.9775790208491</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1509,7 +1583,7 @@
         <v>1273.5663054545455</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -1524,12 +1598,47 @@
         <v>43.78515023002933</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="4">
+        <v>4158.84</v>
+      </c>
+      <c r="F33" s="5">
+        <v>4155.66</v>
+      </c>
+      <c r="G33" s="5">
+        <v>4147.5</v>
+      </c>
+      <c r="H33" s="5">
+        <v>4145.2299999999996</v>
+      </c>
+      <c r="I33" s="5">
+        <v>4137.5200000000004</v>
+      </c>
+      <c r="J33" s="5">
+        <v>4135.71</v>
+      </c>
+      <c r="K33" s="5">
+        <v>4128.45</v>
+      </c>
+      <c r="L33" s="5">
+        <v>4127.54</v>
+      </c>
+      <c r="N33">
+        <f>AVERAGE(E33:L33)</f>
+        <v>4142.0562499999996</v>
       </c>
     </row>
   </sheetData>

--- a/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
+++ b/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\Desktop\Nico\TU-Braunschweig\6. Semester\IFF\Labor-IFF-Flugversuch\Excel_Word_Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FB6140C-2567-4904-BD51-1A90504398C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787850B2-4BB8-4EB0-B4C9-A8D95D258111}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>VTAS</t>
   </si>
@@ -86,16 +86,7 @@
     <t xml:space="preserve">CA* </t>
   </si>
   <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>0,108</t>
-  </si>
-  <si>
     <t>Wmin</t>
-  </si>
-  <si>
-    <t>0,0196</t>
   </si>
   <si>
     <t>Rho</t>
@@ -135,7 +126,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -171,23 +162,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1373,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1388,11 +1429,11 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1455,13 +1496,13 @@
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="O4">
-        <v>1.343</v>
+        <v>1.39</v>
       </c>
       <c r="P4">
-        <v>4.1000000000000002E-2</v>
+        <v>4.5100000000000001E-2</v>
       </c>
       <c r="Q4">
-        <v>0.10100000000000001</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1515,7 +1556,7 @@
         <v>0.43569999999999998</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,10 +1583,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1554,13 +1595,13 @@
         <v>4143.2</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="2">
+      <c r="E13" s="8">
         <f>SQRT(2*N33*9.81/(K8*29*O4))</f>
-        <v>42.943082298222272</v>
-      </c>
-      <c r="F13" s="2">
+        <v>42.210822967679043</v>
+      </c>
+      <c r="F13" s="9">
         <f>2*N33*9.81*P4/O4</f>
-        <v>2480.9775790208491</v>
+        <v>2636.7972499910074</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1572,68 +1613,68 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <f>2*(0.0196/1.1)*3643*9.81</f>
-        <v>1273.5663054545455</v>
+      <c r="E19" s="7">
+        <f>2*3643*9.81*B21/B19</f>
+        <v>4678.406836363637</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="B20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="B20">
+        <v>9.1600000000000001E-2</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E20">
-        <f>SQRT(2*3642*9.81/(28*1.210137*1.1))</f>
-        <v>43.78515023002933</v>
+      <c r="E20" s="11">
+        <f>SQRT(2*3642*9.81/(28*1.210137*B19))</f>
+        <v>44.922616278806402</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
-      <c r="B21" t="s">
-        <v>21</v>
+      <c r="B21">
+        <v>6.8400000000000002E-2</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="N32" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>4158.84</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>4155.66</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="4">
         <v>4147.5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="4">
         <v>4145.2299999999996</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <v>4137.5200000000004</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>4135.71</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="4">
         <v>4128.45</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="4">
         <v>4127.54</v>
       </c>
       <c r="N33">

--- a/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
+++ b/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\Desktop\Nico\TU-Braunschweig\6. Semester\IFF\Labor-IFF-Flugversuch\Excel_Word_Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787850B2-4BB8-4EB0-B4C9-A8D95D258111}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2FEC5-7D78-4610-BB06-1F66A85DA022}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5508" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -220,15 +220,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1414,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1429,11 +1429,11 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -1583,10 +1583,10 @@
         <v>13</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1595,11 +1595,11 @@
         <v>4143.2</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f>SQRT(2*N33*9.81/(K8*29*O4))</f>
         <v>42.210822967679043</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <f>2*N33*9.81*P4/O4</f>
         <v>2636.7972499910074</v>
       </c>
@@ -1616,10 +1616,10 @@
       <c r="B19">
         <v>1.0449999999999999</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="6">
         <f>2*3643*9.81*B21/B19</f>
         <v>4678.406836363637</v>
       </c>
@@ -1631,10 +1631,10 @@
       <c r="B20">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <f>SQRT(2*3642*9.81/(28*1.210137*B19))</f>
         <v>44.922616278806402</v>
       </c>

--- a/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
+++ b/Excel_Word_Dateien/Werte optimales Gleiten Lilienthal.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicoh\Desktop\Nico\TU-Braunschweig\6. Semester\IFF\Labor-IFF-Flugversuch\Excel_Word_Dateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E2FEC5-7D78-4610-BB06-1F66A85DA022}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9221DDE4-C6FB-4061-9117-C5C4FAA9C466}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5508" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1414,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,10 +1500,10 @@
         <v>1.39</v>
       </c>
       <c r="P4">
-        <v>4.5100000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="Q4">
-        <v>0.105</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,7 +1602,7 @@
       </c>
       <c r="F13" s="8">
         <f>2*N33*9.81*P4/O4</f>
-        <v>2636.7972499910074</v>
+        <v>2923.2785476618706</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
